--- a/Clases/7.- Listas/7.- Listas.xlsx
+++ b/Clases/7.- Listas/7.- Listas.xlsx
@@ -15,6 +15,12 @@
     <sheet name="Vista" sheetId="1" r:id="rId1"/>
     <sheet name="Datos" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="CHILE">Vista!$E$29:$E$35</definedName>
+    <definedName name="COLOMBIA">Vista!$F$29:$F$35</definedName>
+    <definedName name="ESPAÑA">Vista!$D$29:$D$35</definedName>
+    <definedName name="PAIS">Vista!$B$29:$B$31</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Valor Absoluto</t>
   </si>
@@ -306,7 +312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -391,34 +397,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -491,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -500,15 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -519,20 +495,14 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -546,24 +516,25 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -622,6 +593,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -629,18 +609,21 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -657,13 +640,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B3:D13" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B3:D13" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="B3:D13"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Valor Absoluto" dataDxfId="3"/>
-    <tableColumn id="2" name="Var" dataDxfId="2"/>
-    <tableColumn id="4" name="Resultado" dataDxfId="1">
-      <calculatedColumnFormula>C4*$B$4</calculatedColumnFormula>
+    <tableColumn id="1" name="Valor Absoluto" dataDxfId="2"/>
+    <tableColumn id="2" name="Var" dataDxfId="1"/>
+    <tableColumn id="4" name="Resultado" dataDxfId="0">
+      <calculatedColumnFormula>$B$4*C4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -969,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -979,20 +962,21 @@
     <col min="5" max="5" width="16.44140625" customWidth="1"/>
     <col min="6" max="6" width="17.21875" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
     <col min="10" max="10" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="G1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -1019,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <f>C4*$B$4</f>
+        <f>$B$4*C4</f>
         <v>100</v>
       </c>
     </row>
@@ -1029,14 +1013,14 @@
         <v>2</v>
       </c>
       <c r="D5" s="3">
-        <f>C5*$B$4</f>
+        <f t="shared" ref="D5:D13" si="0">$B$4*C5</f>
         <v>200</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -1045,11 +1029,14 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <f>C6*$B$4</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
+      </c>
+      <c r="H6">
+        <v>10001</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
@@ -1058,11 +1045,14 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <f>C7*$B$4</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="G7" t="s">
         <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
@@ -1071,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <f>C8*$B$4</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
     </row>
@@ -1081,7 +1071,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="3">
-        <f>C9*$B$4</f>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
     </row>
@@ -1091,7 +1081,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <f>C10*$B$4</f>
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
     </row>
@@ -1101,7 +1091,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="3">
-        <f>C11*$B$4</f>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
     </row>
@@ -1111,375 +1101,399 @@
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <f>C12*$B$4</f>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8">
+      <c r="B13" s="2"/>
+      <c r="C13" s="7">
         <v>10</v>
       </c>
-      <c r="D13" s="9">
-        <f>C13*$B$4</f>
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="20" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
     </row>
     <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="19" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="18" t="s">
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="17" t="s">
+      <c r="J27" s="9"/>
+      <c r="K27" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="16" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="12" t="s">
+      <c r="G28" s="9"/>
+      <c r="H28" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14" t="s">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14" t="s">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14" t="s">
+      <c r="E34" s="10"/>
+      <c r="F34" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14" t="s">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="K28:N39"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="D24:I25"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N39"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H28:H35">
+      <formula1>PAIS</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I28:I35">
+      <formula1>INDIRECT(H28)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>H5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Datos!$B$2:$B$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>H6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Datos!$C$2:$C$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>H7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1492,7 +1506,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1501,21 +1515,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1">
@@ -1529,7 +1543,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1">
@@ -1543,7 +1557,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1">
@@ -1557,7 +1571,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1">
@@ -1571,7 +1585,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1">
@@ -1585,7 +1599,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1">
